--- a/123.xlsx
+++ b/123.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4486aceafc703a82/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22C2FF8-C0F2-4F2C-AE0F-35E969E7B659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B534CFC-B541-472E-9734-C5AFB835772E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="16584" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="626">
   <si>
     <t>emp_name</t>
   </si>
@@ -1900,6 +1900,9 @@
   </si>
   <si>
     <t>20457</t>
+  </si>
+  <si>
+    <t>سيروان وليد جرجيس</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1979,17 +1982,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2273,9 +2290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5019,6 +5038,26 @@
         <v>624</v>
       </c>
     </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B138">
+        <v>60017</v>
+      </c>
+      <c r="C138">
+        <v>7901000000</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F138">
+        <v>53410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
